--- a/quarto/spanish-test.xlsx
+++ b/quarto/spanish-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jryan\Documents\R\projects\soil-health-report-generator\quarto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB49D8-95CA-44A5-AF23-A8D52824B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47F7EE-C1EC-40BF-8F55-FD96AD9FDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-96" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2464,8 +2464,8 @@
     <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="25" width="8.88671875"/>
   </cols>
   <sheetData>
@@ -2492,10 +2492,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
